--- a/output/fit_clients/fit_round_230.xlsx
+++ b/output/fit_clients/fit_round_230.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1950421934.737718</v>
+        <v>2012529067.078979</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08394268894371811</v>
+        <v>0.08559348430744475</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03143929144261508</v>
+        <v>0.04447422053745893</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>975210956.371672</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2128446809.452777</v>
+        <v>2645943093.067693</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1255552381117148</v>
+        <v>0.1275947635321926</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04801314362664599</v>
+        <v>0.04348498486881741</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1064223464.664242</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5153957443.497769</v>
+        <v>4339978545.888912</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1015852170394235</v>
+        <v>0.1600601996672783</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02428942315967399</v>
+        <v>0.02589860313974645</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>83</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2576978817.653124</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4073664533.834601</v>
+        <v>3015044046.563905</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09325502004975389</v>
+        <v>0.08960574280064083</v>
       </c>
       <c r="G5" t="n">
-        <v>0.048827573263702</v>
+        <v>0.03877287342861514</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>89</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2036832265.697904</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2784009661.152177</v>
+        <v>2229365801.059241</v>
       </c>
       <c r="F6" t="n">
-        <v>0.099603927358559</v>
+        <v>0.09375868227024262</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05670733935070224</v>
+        <v>0.03473958367014268</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>38</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1392004775.30856</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2322091715.629958</v>
+        <v>2224648459.434655</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06199045819381759</v>
+        <v>0.09812689341061873</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04317169149387527</v>
+        <v>0.03165730597156829</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>71</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1161045887.939965</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3799857299.821907</v>
+        <v>3878907154.873953</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1960891936789879</v>
+        <v>0.1662038707098256</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02852651516398147</v>
+        <v>0.02673617560115274</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>74</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1899928789.180351</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1748575424.086926</v>
+        <v>2160510674.536676</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1531060672296666</v>
+        <v>0.1689837801001187</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03406792311091665</v>
+        <v>0.02667692057406076</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>874287773.5287189</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5001447577.442887</v>
+        <v>5484926060.919176</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2022675080566063</v>
+        <v>0.139305437102307</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04818880504807777</v>
+        <v>0.0502083115237217</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>97</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2500723888.112314</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3993109528.126619</v>
+        <v>3743135684.053739</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1448641442569792</v>
+        <v>0.1397210116550799</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04163363733021888</v>
+        <v>0.04680126871521581</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>95</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1996554776.291626</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2163648817.119551</v>
+        <v>2424125594.914007</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1424064106924167</v>
+        <v>0.1840681361266977</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0535193460117911</v>
+        <v>0.04059897667610325</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>80</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1081824349.990693</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4717796975.080445</v>
+        <v>5234242319.480513</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09025312000204953</v>
+        <v>0.09698806868416489</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02924141591015093</v>
+        <v>0.0244884533268446</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>77</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2358898505.998319</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3114807281.542466</v>
+        <v>2876500204.277022</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1647422713253276</v>
+        <v>0.1621733971279546</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03353797491246664</v>
+        <v>0.03700710756834221</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>74</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1557403666.883779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1132360832.338121</v>
+        <v>1320990704.393018</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1049186296761962</v>
+        <v>0.08916489955183741</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03891538713175408</v>
+        <v>0.03470853703692571</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>566180418.2990307</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2280832636.703362</v>
+        <v>2542606510.736461</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1012120812483062</v>
+        <v>0.08979083855449035</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03396763552571611</v>
+        <v>0.03733198820358688</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>41</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1140416368.745534</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3585866851.381029</v>
+        <v>4874138809.486452</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1068966611289674</v>
+        <v>0.1264422690952057</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04667628331325828</v>
+        <v>0.05199456857819659</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>67</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1792933480.740334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2477064531.417026</v>
+        <v>2745108471.023025</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1350370854846265</v>
+        <v>0.112511836786096</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03360544520838885</v>
+        <v>0.02730410215665384</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>75</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1238532333.794642</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1014257556.80169</v>
+        <v>1259453198.665876</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1260726135531065</v>
+        <v>0.116716055044675</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02690356201244157</v>
+        <v>0.0207622834873104</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>507128811.0797186</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1803809878.607173</v>
+        <v>2741720612.262442</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1518426376194094</v>
+        <v>0.1266887075485803</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0194699931698269</v>
+        <v>0.0247749397281897</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>35</v>
-      </c>
-      <c r="J20" t="n">
-        <v>901904986.5387663</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2260744953.305121</v>
+        <v>2199000861.593059</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06644743017345403</v>
+        <v>0.06620559217524605</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04066709909635267</v>
+        <v>0.03936825309981005</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>18</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1130372487.672116</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3180921533.854919</v>
+        <v>3506085436.877192</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09187501262590154</v>
+        <v>0.09990032695140506</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03858125002484779</v>
+        <v>0.04193995620513363</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>65</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1590460817.614707</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1407123720.50356</v>
+        <v>1262347006.103292</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1347907795104323</v>
+        <v>0.1856886878166799</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04186264776130682</v>
+        <v>0.03969291434698497</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>703561861.8254737</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3253535328.402568</v>
+        <v>3884083132.965929</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1371062435355603</v>
+        <v>0.1406668458130084</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02856161607735696</v>
+        <v>0.03387890111317879</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>67</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1626767682.376337</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1090557453.108402</v>
+        <v>927737696.028854</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07813592085677552</v>
+        <v>0.1227433096387282</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02833531671214525</v>
+        <v>0.02016345519916394</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>545278769.7080622</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1450103503.872936</v>
+        <v>878505120.0116743</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1209767684288963</v>
+        <v>0.1210169181991638</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03158336830488342</v>
+        <v>0.03172554667487942</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>725051834.1423936</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3279410769.879099</v>
+        <v>4351817989.772331</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1064915836834405</v>
+        <v>0.1576146204521791</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0231934361808327</v>
+        <v>0.02409940004842612</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>56</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1639705430.897266</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3276471413.375926</v>
+        <v>3251168757.382739</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09617138499959985</v>
+        <v>0.1249290624508345</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03171163277772743</v>
+        <v>0.03669585577067865</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>74</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1638235741.88462</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5020626601.289537</v>
+        <v>3678606177.837142</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09130380678047546</v>
+        <v>0.118433946772241</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03580149373391254</v>
+        <v>0.04515209035964614</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>103</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2510313246.766904</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1499970542.451998</v>
+        <v>1467789248.043603</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1094236976485054</v>
+        <v>0.1089849165783253</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02508320402220544</v>
+        <v>0.03189155047703398</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>749985251.7577469</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>924296401.8725053</v>
+        <v>1064943477.427935</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07552221003001373</v>
+        <v>0.08916372380479025</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04293121156915299</v>
+        <v>0.03818032003989236</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>462148217.2930233</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1539087630.47176</v>
+        <v>1321135937.396559</v>
       </c>
       <c r="F32" t="n">
-        <v>0.106548633439983</v>
+        <v>0.07387168429918062</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02370925113990766</v>
+        <v>0.03390883424001864</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>769543891.6855183</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2624409538.853911</v>
+        <v>2776323058.689402</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1387613025282815</v>
+        <v>0.17303357650562</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04499424550181221</v>
+        <v>0.04769684446870729</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>68</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1312204797.020004</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1078696579.336681</v>
+        <v>972865718.8491297</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09483208584075634</v>
+        <v>0.1145918645151699</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02734010356913948</v>
+        <v>0.02210871770651268</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>539348314.5882497</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1115574442.777282</v>
+        <v>1001814748.395562</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1146782157172396</v>
+        <v>0.08462734424001062</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03240293346160056</v>
+        <v>0.04277583929096602</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>557787214.6255019</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2581522525.227615</v>
+        <v>2879776288.807251</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1408234576433212</v>
+        <v>0.1343256474066607</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02495830379023279</v>
+        <v>0.02170854377650645</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>58</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1290761278.056538</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2490874857.409664</v>
+        <v>2260159986.965796</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1011640766558541</v>
+        <v>0.07946012742014112</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03463706352777283</v>
+        <v>0.03213673751440695</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>60</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1245437523.481955</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1338749209.693664</v>
+        <v>1920943628.072798</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07807411680774071</v>
+        <v>0.07712090788818657</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02702638850689766</v>
+        <v>0.03124364727739267</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>669374676.8676178</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1701541772.184228</v>
+        <v>1359731916.454644</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1937285606488176</v>
+        <v>0.1328302652439614</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03113920175009685</v>
+        <v>0.03037502212098066</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>850770925.9277657</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1784334320.045207</v>
+        <v>1295572314.297788</v>
       </c>
       <c r="F40" t="n">
-        <v>0.132553294000772</v>
+        <v>0.1172477895445107</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05775532661513715</v>
+        <v>0.0389446934578285</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>892167055.0131427</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2824880776.113993</v>
+        <v>2464488875.198958</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1197744398413348</v>
+        <v>0.1440532847354976</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04569268886979811</v>
+        <v>0.03143902556242292</v>
       </c>
       <c r="H41" t="b">
         <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>54</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1412440381.517938</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3874994213.493971</v>
+        <v>3679116613.265558</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1141222351337467</v>
+        <v>0.0797393948890124</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04054124902780029</v>
+        <v>0.04363919814562875</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>79</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1937497127.393134</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2802664813.048186</v>
+        <v>2419048369.255336</v>
       </c>
       <c r="F43" t="n">
-        <v>0.16133863764706</v>
+        <v>0.1436812036747789</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02186271319964361</v>
+        <v>0.0212083151281266</v>
       </c>
       <c r="H43" t="b">
         <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>80</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1401332424.746938</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1678743178.41645</v>
+        <v>1828331979.156375</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07344253898042057</v>
+        <v>0.06500208856425777</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03243168227748319</v>
+        <v>0.03568206727231814</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>839371631.4275119</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1819234503.683446</v>
+        <v>1631761692.778023</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1359536266354331</v>
+        <v>0.1222203945487569</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0511196870268292</v>
+        <v>0.03538802273313547</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>909617224.4827845</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4249716542.571535</v>
+        <v>5197128371.762419</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1682817911161522</v>
+        <v>0.157501695847393</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05642808415933552</v>
+        <v>0.04361214076562054</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>82</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2124858255.095374</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4843022059.293297</v>
+        <v>4531872141.018195</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1300395035828375</v>
+        <v>0.1243414243286236</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05034053952228664</v>
+        <v>0.04613185530654508</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>62</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2421511076.525417</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4590812572.096684</v>
+        <v>3337079514.26819</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07199750731462821</v>
+        <v>0.08995176552435391</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03655944827143184</v>
+        <v>0.03667988694317588</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>75</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2295406286.047017</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1910353208.084633</v>
+        <v>1649571319.519492</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1377914348961091</v>
+        <v>0.1902780150057627</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02859838009771341</v>
+        <v>0.02877351327223965</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>955176572.2604263</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2936983541.078568</v>
+        <v>2956971491.371755</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1396502352853701</v>
+        <v>0.1601368231214551</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03630763506762373</v>
+        <v>0.05343724082039555</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>78</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1468491834.833612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1409465538.614986</v>
+        <v>1255531824.209023</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1788052246764544</v>
+        <v>0.1193280299269367</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03361746781760137</v>
+        <v>0.04956171448508993</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>704732786.9055707</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5130311888.207576</v>
+        <v>3851054326.221096</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1221643936026645</v>
+        <v>0.1230757210958217</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03778242527458459</v>
+        <v>0.04732200560879068</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>95</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2565155934.043964</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2584872601.426407</v>
+        <v>2507042499.300095</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1838498359043002</v>
+        <v>0.1980604448860833</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02577422627819181</v>
+        <v>0.02525642111334636</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>66</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1292436361.828387</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3021214553.36268</v>
+        <v>3150176969.421176</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1110805441873483</v>
+        <v>0.1562883017639512</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03905092948367735</v>
+        <v>0.03479261195230594</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>75</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1510607263.886112</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3677330572.478439</v>
+        <v>3929295795.877149</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1580760762535861</v>
+        <v>0.1374811746409142</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02751668722632136</v>
+        <v>0.02320674250030597</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>59</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1838665246.876035</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1775530813.641407</v>
+        <v>1313040674.729232</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1337022199786468</v>
+        <v>0.1087242395157096</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04855994805698884</v>
+        <v>0.05692700059707191</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>887765408.2514126</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3520502027.187106</v>
+        <v>4326667749.435555</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1605567518816749</v>
+        <v>0.1269674223345987</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01672460034829661</v>
+        <v>0.02158578660037247</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>73</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1760251061.691146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1311541858.992385</v>
+        <v>1325834797.941836</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1786327687293011</v>
+        <v>0.1289576138981604</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03956953501522519</v>
+        <v>0.03596041308415996</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>655770977.8160112</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3264718254.536988</v>
+        <v>3939245087.051586</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1224137994317963</v>
+        <v>0.09807733843678607</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03978250205331408</v>
+        <v>0.04187545049228348</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>64</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1632359138.651597</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2865350073.442142</v>
+        <v>2832554724.181549</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1644143896619388</v>
+        <v>0.2028579819172323</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03229923646094891</v>
+        <v>0.0287740504439238</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>71</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1432675092.935359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2928127634.152936</v>
+        <v>3137860987.294286</v>
       </c>
       <c r="F61" t="n">
-        <v>0.109777804125468</v>
+        <v>0.133721906816697</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02834946552452058</v>
+        <v>0.03189022514660789</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>80</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1464063804.314644</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1697317411.268788</v>
+        <v>1980280938.979272</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1370597113672215</v>
+        <v>0.1366276294228467</v>
       </c>
       <c r="G62" t="n">
-        <v>0.041059066920741</v>
+        <v>0.03267870045013709</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>848658718.2792273</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4514196484.400841</v>
+        <v>4162554087.146251</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1013176238951177</v>
+        <v>0.08786331699544503</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03768537478834938</v>
+        <v>0.02898507043799502</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>66</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2257098281.620317</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5268732695.221425</v>
+        <v>4001912950.250007</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1540036496399858</v>
+        <v>0.1364371472991029</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02245932951106878</v>
+        <v>0.02190385797428397</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>71</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2634366472.698654</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4934733419.21393</v>
+        <v>5033837705.873565</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1500949070314887</v>
+        <v>0.1404828194846369</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02588615046221971</v>
+        <v>0.02387312336162678</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>84</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2467366672.398475</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5669398776.32412</v>
+        <v>4621954716.774226</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1345671627637935</v>
+        <v>0.1463252389512313</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04181497895292804</v>
+        <v>0.04113345780118781</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>67</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2834699451.154238</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3473760586.876168</v>
+        <v>2991947293.434076</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07043921117056424</v>
+        <v>0.09018415246697244</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03920876626610583</v>
+        <v>0.0426458067128212</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>73</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1736880271.549302</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4396034905.379532</v>
+        <v>4049780137.739825</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09671798086956516</v>
+        <v>0.1444756236222146</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04559806098764919</v>
+        <v>0.04789252689027924</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>76</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2198017472.470419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1779267401.647549</v>
+        <v>2432224718.695764</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1824700442143082</v>
+        <v>0.1332251095733968</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04290089649299057</v>
+        <v>0.05761213630160216</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>889633677.2024682</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2560057189.59255</v>
+        <v>3435926288.108719</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06649562695385429</v>
+        <v>0.07456878134320631</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04497016228548325</v>
+        <v>0.04542265847374634</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>65</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1280028543.209188</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4382699534.006871</v>
+        <v>4982562005.762135</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1491302597942874</v>
+        <v>0.1815762495528432</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02572616360652664</v>
+        <v>0.0329856590074882</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>84</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2191349826.59656</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1579671333.162062</v>
+        <v>1477544448.114186</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07282221817431545</v>
+        <v>0.07247486454599522</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03993219082761809</v>
+        <v>0.03368809989344987</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>789835680.7170326</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3249787977.27015</v>
+        <v>3129393971.197646</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07538061645185089</v>
+        <v>0.07787630585667141</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03672762913653685</v>
+        <v>0.0369718215197611</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>91</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1624893961.713293</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3692842980.061782</v>
+        <v>2662752789.565474</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1174439165594545</v>
+        <v>0.1243965042364972</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02574277186448707</v>
+        <v>0.02696942956404964</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>78</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1846421495.530725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1718343233.510884</v>
+        <v>1590811199.173735</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1058239940016129</v>
+        <v>0.144590119563353</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03450480828871577</v>
+        <v>0.02591985749892943</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>859171607.3028735</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3507110005.910058</v>
+        <v>4008906771.410144</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1170665697987463</v>
+        <v>0.1020275363022996</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02917275233033854</v>
+        <v>0.03030882270740142</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>51</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1753554967.017834</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2109577471.614282</v>
+        <v>1534103288.85198</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1233391253841257</v>
+        <v>0.1609197511574164</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01957993929482283</v>
+        <v>0.02695665940865517</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1054788813.477438</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2971404895.426825</v>
+        <v>4057081882.715609</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08564436101176227</v>
+        <v>0.1114412475916575</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05625690898272765</v>
+        <v>0.04852448081078777</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>80</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1485702487.056345</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1833057244.898029</v>
+        <v>1557745301.228751</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1562671991401919</v>
+        <v>0.1419532251858972</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03892560412433381</v>
+        <v>0.02622146449290849</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>916528714.9155383</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4103600824.699726</v>
+        <v>4785651734.129304</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09347020899132379</v>
+        <v>0.08461229843667169</v>
       </c>
       <c r="G80" t="n">
-        <v>0.025364392913165</v>
+        <v>0.02903957381968867</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>48</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2051800416.950954</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3648820560.131761</v>
+        <v>3574554918.984232</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1367094196794834</v>
+        <v>0.09337369924185215</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02279048180802562</v>
+        <v>0.02204333283637072</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>54</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1824410230.224108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4857576263.385409</v>
+        <v>4475542832.48313</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1828600087336848</v>
+        <v>0.164560605377096</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01845829965399051</v>
+        <v>0.01878383756872871</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>85</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2428788123.586389</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1737016967.803326</v>
+        <v>1880871423.721193</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1041599506233461</v>
+        <v>0.1229912489067732</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03396812326201464</v>
+        <v>0.04209903266342589</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>868508436.4683442</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2390201038.031857</v>
+        <v>1572138015.317208</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1039798912304142</v>
+        <v>0.1119229542472279</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05039781707805319</v>
+        <v>0.04170741077230102</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1195100466.842835</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2644574938.802206</v>
+        <v>3379437606.478181</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1713674532911422</v>
+        <v>0.18255780391554</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04176520479807254</v>
+        <v>0.04637645366414251</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>87</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1322287490.318384</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2527398119.678541</v>
+        <v>2337485483.460464</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1502927414186898</v>
+        <v>0.1337581440890103</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02124243369310977</v>
+        <v>0.02563475982190934</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>29</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1263699160.804696</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1263806980.768782</v>
+        <v>1327838352.236053</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1329902891470375</v>
+        <v>0.1431301023438616</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04428484953623309</v>
+        <v>0.03589592398022745</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>631903562.3036638</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2776986174.041621</v>
+        <v>2314975323.456375</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1194057003917278</v>
+        <v>0.1077351804285104</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02492058441350375</v>
+        <v>0.02814235615195121</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>91</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1388493095.420949</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3026845944.806059</v>
+        <v>2332002096.520508</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1516596890993342</v>
+        <v>0.09868194955354316</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04015366903455013</v>
+        <v>0.02847769418573188</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>78</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1513423008.544783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1930683441.756878</v>
+        <v>1692030214.359809</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1039439857530782</v>
+        <v>0.1051299919275249</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04507531696548035</v>
+        <v>0.05356544802075335</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>965341778.4243819</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1678424613.178988</v>
+        <v>2013071396.108752</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1799188089217926</v>
+        <v>0.1608092386435639</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04946151579416695</v>
+        <v>0.05474218567324003</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>839212321.7267101</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2626006300.568061</v>
+        <v>2033132426.481749</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1007777625367039</v>
+        <v>0.08088327628956553</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03478139658932892</v>
+        <v>0.02953257642710805</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>58</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1313003143.783187</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4427535648.054132</v>
+        <v>3876274659.679502</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1238601980383228</v>
+        <v>0.131880221792406</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03489542959201568</v>
+        <v>0.05351856060942216</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>71</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2213767796.989051</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1529034929.60098</v>
+        <v>2094477980.410923</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1580586465326727</v>
+        <v>0.1100233645858221</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0342993707604773</v>
+        <v>0.03241360784438729</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>764517401.8421769</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2792690649.144286</v>
+        <v>2950997381.624683</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08484533436577295</v>
+        <v>0.1300312864439513</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05207227300585185</v>
+        <v>0.0454045156597306</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>55</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1396345339.391751</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1618626930.546166</v>
+        <v>1579764566.214313</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1167841564932359</v>
+        <v>0.09735406010354487</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0421886830024705</v>
+        <v>0.03768051528455426</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>809313492.9604586</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3821098633.802846</v>
+        <v>4639765400.723822</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1709427570852239</v>
+        <v>0.1465927561891064</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0192454062433852</v>
+        <v>0.0193025754383444</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>76</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1910549358.877442</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2789801335.768574</v>
+        <v>3350781157.083979</v>
       </c>
       <c r="F98" t="n">
-        <v>0.126579557051394</v>
+        <v>0.1152887248625687</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02680069666329535</v>
+        <v>0.02591809379581313</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>61</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1394900638.312791</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2960516430.537565</v>
+        <v>2501318798.564135</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1187983692305149</v>
+        <v>0.1138817869093195</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02310174993910744</v>
+        <v>0.0353476029026366</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>72</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1480258198.387713</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3907042260.769151</v>
+        <v>3432787532.696851</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1644139976692711</v>
+        <v>0.1713666170008367</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02359460077107614</v>
+        <v>0.02614021309941931</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>71</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1953521193.63059</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2920900607.263905</v>
+        <v>2494823372.337536</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1634231305835828</v>
+        <v>0.1789092599826813</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04602217157746603</v>
+        <v>0.03922975638274467</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>93</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1460450382.228721</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_230.xlsx
+++ b/output/fit_clients/fit_round_230.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2012529067.078979</v>
+        <v>2270666372.657962</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08559348430744475</v>
+        <v>0.07970505061440918</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04447422053745893</v>
+        <v>0.04428830703253699</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2645943093.067693</v>
+        <v>1628184166.28116</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1275947635321926</v>
+        <v>0.1365044464336265</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04348498486881741</v>
+        <v>0.04814029175683607</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4339978545.888912</v>
+        <v>5253620810.909522</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1600601996672783</v>
+        <v>0.1636689831955404</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02589860313974645</v>
+        <v>0.03612489643146537</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3015044046.563905</v>
+        <v>2867398478.842204</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08960574280064083</v>
+        <v>0.1061870107832059</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03877287342861514</v>
+        <v>0.04990878323087914</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2229365801.059241</v>
+        <v>1846096371.99049</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09375868227024262</v>
+        <v>0.1305953312013821</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03473958367014268</v>
+        <v>0.03676296234774759</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2224648459.434655</v>
+        <v>2604012306.57128</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09812689341061873</v>
+        <v>0.06531221078614576</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03165730597156829</v>
+        <v>0.0343122510298817</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3878907154.873953</v>
+        <v>2586043945.347086</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1662038707098256</v>
+        <v>0.1382725227861446</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02673617560115274</v>
+        <v>0.03071095471033418</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2160510674.536676</v>
+        <v>1622064361.389804</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1689837801001187</v>
+        <v>0.1314086560182917</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02667692057406076</v>
+        <v>0.03078283938085377</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5484926060.919176</v>
+        <v>5526105991.064647</v>
       </c>
       <c r="F10" t="n">
-        <v>0.139305437102307</v>
+        <v>0.1585438709414239</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0502083115237217</v>
+        <v>0.05013164775148691</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3743135684.053739</v>
+        <v>2952717939.838352</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1397210116550799</v>
+        <v>0.1468233340440818</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04680126871521581</v>
+        <v>0.03228904630105173</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2424125594.914007</v>
+        <v>2402712636.812015</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1840681361266977</v>
+        <v>0.1778159374092552</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04059897667610325</v>
+        <v>0.04405228968076083</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5234242319.480513</v>
+        <v>3557932581.609931</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09698806868416489</v>
+        <v>0.1003966328636338</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0244884533268446</v>
+        <v>0.02789130771671678</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2876500204.277022</v>
+        <v>3113654692.571943</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1621733971279546</v>
+        <v>0.1631786610378416</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03700710756834221</v>
+        <v>0.03747776285221123</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1320990704.393018</v>
+        <v>1565048089.49179</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08916489955183741</v>
+        <v>0.08350548734389961</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03470853703692571</v>
+        <v>0.04618149346695497</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2542606510.736461</v>
+        <v>2104638910.287296</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08979083855449035</v>
+        <v>0.1029503678063168</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03733198820358688</v>
+        <v>0.04653000461547873</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4874138809.486452</v>
+        <v>4465614479.159184</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1264422690952057</v>
+        <v>0.1516713958977369</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05199456857819659</v>
+        <v>0.03748457923308146</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2745108471.023025</v>
+        <v>3061335134.730597</v>
       </c>
       <c r="F18" t="n">
-        <v>0.112511836786096</v>
+        <v>0.1755987162372116</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02730410215665384</v>
+        <v>0.02340042989259442</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1259453198.665876</v>
+        <v>1215307900.547446</v>
       </c>
       <c r="F19" t="n">
-        <v>0.116716055044675</v>
+        <v>0.1821400587913583</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0207622834873104</v>
+        <v>0.0225791291566405</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2741720612.262442</v>
+        <v>2538286254.890339</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1266887075485803</v>
+        <v>0.1495594204663629</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0247749397281897</v>
+        <v>0.02938974435924261</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2199000861.593059</v>
+        <v>1910792944.00246</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06620559217524605</v>
+        <v>0.06871141150554344</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03936825309981005</v>
+        <v>0.03101873844003914</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3506085436.877192</v>
+        <v>2931202980.292986</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09990032695140506</v>
+        <v>0.09019848568087452</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04193995620513363</v>
+        <v>0.04045312104835726</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1262347006.103292</v>
+        <v>1403355652.093877</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1856886878166799</v>
+        <v>0.1656999510955136</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03969291434698497</v>
+        <v>0.048037894947898</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3884083132.965929</v>
+        <v>3585848138.658651</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1406668458130084</v>
+        <v>0.1149474679309875</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03387890111317879</v>
+        <v>0.02729296694583343</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>927737696.028854</v>
+        <v>1208608757.474067</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1227433096387282</v>
+        <v>0.0992186446947706</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02016345519916394</v>
+        <v>0.02686367712617808</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>878505120.0116743</v>
+        <v>1259914438.824169</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1210169181991638</v>
+        <v>0.1103814605246101</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03172554667487942</v>
+        <v>0.03289384706179996</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4351817989.772331</v>
+        <v>3585139009.589721</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1576146204521791</v>
+        <v>0.1389369194701025</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02409940004842612</v>
+        <v>0.0191719613409505</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3251168757.382739</v>
+        <v>2902178167.831986</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1249290624508345</v>
+        <v>0.1063030755797421</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03669585577067865</v>
+        <v>0.04815719417351892</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3678606177.837142</v>
+        <v>5419931903.293258</v>
       </c>
       <c r="F29" t="n">
-        <v>0.118433946772241</v>
+        <v>0.1077292355796927</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04515209035964614</v>
+        <v>0.03170093894947563</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1467789248.043603</v>
+        <v>1731325379.694629</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1089849165783253</v>
+        <v>0.1135125929181806</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03189155047703398</v>
+        <v>0.03553677706657146</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1064943477.427935</v>
+        <v>1000845934.730145</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08916372380479025</v>
+        <v>0.06808795183287308</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03818032003989236</v>
+        <v>0.03811457037262154</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1321135937.396559</v>
+        <v>1822166829.701494</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07387168429918062</v>
+        <v>0.0935899108076001</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03390883424001864</v>
+        <v>0.0294996232612881</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2776323058.689402</v>
+        <v>1984668352.81814</v>
       </c>
       <c r="F33" t="n">
-        <v>0.17303357650562</v>
+        <v>0.1462466757032651</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04769684446870729</v>
+        <v>0.03800966899458515</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>972865718.8491297</v>
+        <v>1324200492.02026</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1145918645151699</v>
+        <v>0.1118750757371164</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02210871770651268</v>
+        <v>0.02475468619535804</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1001814748.395562</v>
+        <v>1039797107.339271</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08462734424001062</v>
+        <v>0.1077019599531917</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04277583929096602</v>
+        <v>0.03205335060506766</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2879776288.807251</v>
+        <v>2238164437.943285</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1343256474066607</v>
+        <v>0.1725433807153121</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02170854377650645</v>
+        <v>0.02872798184652166</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2260159986.965796</v>
+        <v>2339802006.168441</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07946012742014112</v>
+        <v>0.08252032314287734</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03213673751440695</v>
+        <v>0.04104426516296208</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1920943628.072798</v>
+        <v>1764404576.815224</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07712090788818657</v>
+        <v>0.104076854854683</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03124364727739267</v>
+        <v>0.03480011059796123</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1359731916.454644</v>
+        <v>1763221129.445424</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1328302652439614</v>
+        <v>0.1604948408421795</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03037502212098066</v>
+        <v>0.02609528566839158</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1295572314.297788</v>
+        <v>1178224602.260356</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1172477895445107</v>
+        <v>0.1207920220832436</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0389446934578285</v>
+        <v>0.04006414984607386</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2464488875.198958</v>
+        <v>2411710510.88487</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1440532847354976</v>
+        <v>0.1056944770972023</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03143902556242292</v>
+        <v>0.04649639439028846</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3679116613.265558</v>
+        <v>3451315712.538503</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0797393948890124</v>
+        <v>0.1027292889501338</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04363919814562875</v>
+        <v>0.04583233587162439</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,16 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2419048369.255336</v>
+        <v>2307699632.588055</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1436812036747789</v>
+        <v>0.1804411691965005</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0212083151281266</v>
+        <v>0.02526184714751154</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1828331979.156375</v>
+        <v>1490637717.838955</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06500208856425777</v>
+        <v>0.06313842825565252</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03568206727231814</v>
+        <v>0.02329898597163088</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1690,16 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1631761692.778023</v>
+        <v>1683032152.179358</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1222203945487569</v>
+        <v>0.1598618046798804</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03538802273313547</v>
+        <v>0.03741597237908125</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5197128371.762419</v>
+        <v>4217912765.707726</v>
       </c>
       <c r="F46" t="n">
-        <v>0.157501695847393</v>
+        <v>0.1461186479314922</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04361214076562054</v>
+        <v>0.04773777791900959</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4531872141.018195</v>
+        <v>3798658464.298494</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1243414243286236</v>
+        <v>0.1682551555752342</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04613185530654508</v>
+        <v>0.05549584028122838</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3337079514.26819</v>
+        <v>3814257461.559656</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08995176552435391</v>
+        <v>0.07959020738078008</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03667988694317588</v>
+        <v>0.0359408628650597</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1649571319.519492</v>
+        <v>1472179114.498233</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1902780150057627</v>
+        <v>0.1267914318920545</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02877351327223965</v>
+        <v>0.04391015259344949</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2956971491.371755</v>
+        <v>3536973188.608865</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1601368231214551</v>
+        <v>0.1539395955062319</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05343724082039555</v>
+        <v>0.05120454830493713</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,16 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1255531824.209023</v>
+        <v>1287483488.765927</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1193280299269367</v>
+        <v>0.1181710776203155</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04956171448508993</v>
+        <v>0.05221425060710641</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3851054326.221096</v>
+        <v>4507274817.632278</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1230757210958217</v>
+        <v>0.1279896787091193</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04732200560879068</v>
+        <v>0.04538920589587529</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2507042499.300095</v>
+        <v>2543837745.955797</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1980604448860833</v>
+        <v>0.1889049100299063</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02525642111334636</v>
+        <v>0.03128495502632309</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3150176969.421176</v>
+        <v>4050808751.89777</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1562883017639512</v>
+        <v>0.1681544129881597</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03479261195230594</v>
+        <v>0.04040422089169455</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3929295795.877149</v>
+        <v>3867356452.406152</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1374811746409142</v>
+        <v>0.1592544688286598</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02320674250030597</v>
+        <v>0.03144850078382769</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1313040674.729232</v>
+        <v>1561232406.054513</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1087242395157096</v>
+        <v>0.1616881576580074</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05692700059707191</v>
+        <v>0.05714948702181262</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4326667749.435555</v>
+        <v>4326088635.557684</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1269674223345987</v>
+        <v>0.1380557092865936</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02158578660037247</v>
+        <v>0.02709271037734397</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1325834797.941836</v>
+        <v>1394017739.272347</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1289576138981604</v>
+        <v>0.1506786546325238</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03596041308415996</v>
+        <v>0.03581688197261038</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3939245087.051586</v>
+        <v>3713322146.689499</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09807733843678607</v>
+        <v>0.1081509602093336</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04187545049228348</v>
+        <v>0.04777542009007864</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2832554724.181549</v>
+        <v>2653364996.390652</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2028579819172323</v>
+        <v>0.1358022002864523</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0287740504439238</v>
+        <v>0.02937871457083769</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3137860987.294286</v>
+        <v>2215823157.643799</v>
       </c>
       <c r="F61" t="n">
-        <v>0.133721906816697</v>
+        <v>0.1520131282439772</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03189022514660789</v>
+        <v>0.02727541896945108</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1980280938.979272</v>
+        <v>2122744057.667697</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1366276294228467</v>
+        <v>0.1173416607862015</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03267870045013709</v>
+        <v>0.03917674215189097</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4162554087.146251</v>
+        <v>3596390480.190751</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08786331699544503</v>
+        <v>0.08189415074155622</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02898507043799502</v>
+        <v>0.03593879636147774</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4001912950.250007</v>
+        <v>4396361912.19971</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1364371472991029</v>
+        <v>0.1587877092295998</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02190385797428397</v>
+        <v>0.02441532710661936</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,19 +2244,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5033837705.873565</v>
+        <v>3932960706.461372</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1404828194846369</v>
+        <v>0.163335939244103</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02387312336162678</v>
+        <v>0.03232691160029546</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4621954716.774226</v>
+        <v>4086547088.308765</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1463252389512313</v>
+        <v>0.1574985185342412</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04113345780118781</v>
+        <v>0.03274235348301874</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2991947293.434076</v>
+        <v>3000131215.336236</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09018415246697244</v>
+        <v>0.07604628745438095</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0426458067128212</v>
+        <v>0.03862702473085734</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4049780137.739825</v>
+        <v>3796436965.751996</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1444756236222146</v>
+        <v>0.1140672541992131</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04789252689027924</v>
+        <v>0.04849600459054693</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2432224718.695764</v>
+        <v>1989372198.9474</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1332251095733968</v>
+        <v>0.1414157513889317</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05761213630160216</v>
+        <v>0.05380177122910088</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3435926288.108719</v>
+        <v>2806711330.798182</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07456878134320631</v>
+        <v>0.07707831412535544</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04542265847374634</v>
+        <v>0.03021110912559146</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4982562005.762135</v>
+        <v>5135325023.213108</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1815762495528432</v>
+        <v>0.1232036567169122</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0329856590074882</v>
+        <v>0.02240893501413527</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1477544448.114186</v>
+        <v>2248692804.332944</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07247486454599522</v>
+        <v>0.1025966856662661</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03368809989344987</v>
+        <v>0.03979011454849671</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3129393971.197646</v>
+        <v>2240106010.146182</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07787630585667141</v>
+        <v>0.07029952926251803</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0369718215197611</v>
+        <v>0.03386048654233473</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2662752789.565474</v>
+        <v>3265658781.475657</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1243965042364972</v>
+        <v>0.1199124197266562</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02696942956404964</v>
+        <v>0.03439227907590205</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1590811199.173735</v>
+        <v>1736892505.291116</v>
       </c>
       <c r="F75" t="n">
-        <v>0.144590119563353</v>
+        <v>0.1453136037954505</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02591985749892943</v>
+        <v>0.0245826418377855</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4008906771.410144</v>
+        <v>5152822647.487142</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1020275363022996</v>
+        <v>0.09926025357502694</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03030882270740142</v>
+        <v>0.02667561091278279</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1534103288.85198</v>
+        <v>1576209558.198673</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1609197511574164</v>
+        <v>0.1469479667024771</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02695665940865517</v>
+        <v>0.03003151656781596</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4057081882.715609</v>
+        <v>4006248734.788701</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1114412475916575</v>
+        <v>0.1203348042243386</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04852448081078777</v>
+        <v>0.04138467846319641</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1557745301.228751</v>
+        <v>1435496587.653399</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1419532251858972</v>
+        <v>0.1585381344426759</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02622146449290849</v>
+        <v>0.03612330285497645</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,13 +2670,13 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4785651734.129304</v>
+        <v>4971620094.004296</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08461229843667169</v>
+        <v>0.107595879035935</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02903957381968867</v>
+        <v>0.03577552439948527</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3574554918.984232</v>
+        <v>4725387703.503827</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09337369924185215</v>
+        <v>0.1224196191947184</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02204333283637072</v>
+        <v>0.03147886062716494</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4475542832.48313</v>
+        <v>4742031452.926296</v>
       </c>
       <c r="F82" t="n">
-        <v>0.164560605377096</v>
+        <v>0.1667443749830826</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01878383756872871</v>
+        <v>0.01884933683414637</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1880871423.721193</v>
+        <v>1673404111.065769</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1229912489067732</v>
+        <v>0.1490653127338008</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04209903266342589</v>
+        <v>0.04010222881134211</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1572138015.317208</v>
+        <v>2133540301.697424</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1119229542472279</v>
+        <v>0.09852959717572209</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04170741077230102</v>
+        <v>0.04099131831325204</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3379437606.478181</v>
+        <v>3398518491.793974</v>
       </c>
       <c r="F85" t="n">
-        <v>0.18255780391554</v>
+        <v>0.1201862549830862</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04637645366414251</v>
+        <v>0.04964093158706608</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2337485483.460464</v>
+        <v>2598729439.827852</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1337581440890103</v>
+        <v>0.1415013915613125</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02563475982190934</v>
+        <v>0.01795037046232294</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1327838352.236053</v>
+        <v>1447724853.56494</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1431301023438616</v>
+        <v>0.117153237487902</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03589592398022745</v>
+        <v>0.03840606655157457</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2314975323.456375</v>
+        <v>3025773534.99648</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1077351804285104</v>
+        <v>0.1160630203808767</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02814235615195121</v>
+        <v>0.0337339348424046</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2332002096.520508</v>
+        <v>2252406297.440554</v>
       </c>
       <c r="F89" t="n">
-        <v>0.09868194955354316</v>
+        <v>0.1446183352208206</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02847769418573188</v>
+        <v>0.0332297172532987</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1692030214.359809</v>
+        <v>1341988124.550497</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1051299919275249</v>
+        <v>0.129212451453437</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05356544802075335</v>
+        <v>0.0447612389355338</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,16 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2013071396.108752</v>
+        <v>1621116918.09043</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1608092386435639</v>
+        <v>0.125968796448544</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05474218567324003</v>
+        <v>0.04407124211865162</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2033132426.481749</v>
+        <v>1942513954.572142</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08088327628956553</v>
+        <v>0.08354796404462286</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02953257642710805</v>
+        <v>0.03314011762510153</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3876274659.679502</v>
+        <v>4131318057.969498</v>
       </c>
       <c r="F93" t="n">
-        <v>0.131880221792406</v>
+        <v>0.1413269871433271</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05351856060942216</v>
+        <v>0.04497392141627227</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,16 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2094477980.410923</v>
+        <v>1819026820.944393</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1100233645858221</v>
+        <v>0.1223901426349362</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03241360784438729</v>
+        <v>0.03960104127920221</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2950997381.624683</v>
+        <v>2764471105.392699</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1300312864439513</v>
+        <v>0.1103405245699498</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0454045156597306</v>
+        <v>0.04834473464120496</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1579764566.214313</v>
+        <v>2107566916.037409</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09735406010354487</v>
+        <v>0.1315079303540193</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03768051528455426</v>
+        <v>0.04625991460732989</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4639765400.723822</v>
+        <v>5208411590.320479</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1465927561891064</v>
+        <v>0.1100911054693567</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0193025754383444</v>
+        <v>0.01881655246438314</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3350781157.083979</v>
+        <v>3621723659.672125</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1152887248625687</v>
+        <v>0.1065625277161509</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02591809379581313</v>
+        <v>0.02526068332942959</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2501318798.564135</v>
+        <v>2945124554.92499</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1138817869093195</v>
+        <v>0.1421734794679895</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0353476029026366</v>
+        <v>0.0266876551275748</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3432787532.696851</v>
+        <v>3785837661.33642</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1713666170008367</v>
+        <v>0.1797880305754341</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02614021309941931</v>
+        <v>0.02476340666876621</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2494823372.337536</v>
+        <v>2344643134.937499</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1789092599826813</v>
+        <v>0.1534067304193384</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03922975638274467</v>
+        <v>0.04725921106766887</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_230.xlsx
+++ b/output/fit_clients/fit_round_230.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2270666372.657962</v>
+        <v>2080656793.264866</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07970505061440918</v>
+        <v>0.09605783545676486</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04428830703253699</v>
+        <v>0.04383049769809096</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1628184166.28116</v>
+        <v>2432395957.17029</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1365044464336265</v>
+        <v>0.1369387485159751</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04814029175683607</v>
+        <v>0.04676469498714965</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5253620810.909522</v>
+        <v>5091125598.922032</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1636689831955404</v>
+        <v>0.1056634509812402</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03612489643146537</v>
+        <v>0.03154818907518147</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>125</v>
+      </c>
+      <c r="J4" t="n">
+        <v>229</v>
+      </c>
+      <c r="K4" t="n">
+        <v>108.0921610391508</v>
       </c>
     </row>
     <row r="5">
@@ -570,17 +608,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2867398478.842204</v>
+        <v>2868876802.078489</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1061870107832059</v>
+        <v>0.09774445040533786</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04990878323087914</v>
+        <v>0.05066474577669673</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>95</v>
+      </c>
+      <c r="J5" t="n">
+        <v>228</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1846096371.99049</v>
+        <v>1759619405.83807</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1305953312013821</v>
+        <v>0.09197412917736056</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03676296234774759</v>
+        <v>0.04840803612959813</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2604012306.57128</v>
+        <v>2072122158.969171</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06531221078614576</v>
+        <v>0.07279722186470572</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0343122510298817</v>
+        <v>0.04196323000518062</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2586043945.347086</v>
+        <v>3780816694.386603</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1382725227861446</v>
+        <v>0.1757850653084777</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03071095471033418</v>
+        <v>0.03023127588108029</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>65</v>
+      </c>
+      <c r="J8" t="n">
+        <v>230</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1622064361.389804</v>
+        <v>1457306796.74497</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1314086560182917</v>
+        <v>0.1491967210655466</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03078283938085377</v>
+        <v>0.02947816318526382</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5526105991.064647</v>
+        <v>5308359907.494502</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1585438709414239</v>
+        <v>0.2001756716105128</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05013164775148691</v>
+        <v>0.03407793017451235</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>209</v>
+      </c>
+      <c r="J10" t="n">
+        <v>230</v>
+      </c>
+      <c r="K10" t="n">
+        <v>116.9821956320768</v>
       </c>
     </row>
     <row r="11">
@@ -738,17 +820,24 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2952717939.838352</v>
+        <v>3880451220.034359</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1468233340440818</v>
+        <v>0.1584531417212435</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03228904630105173</v>
+        <v>0.04391825330265286</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>94</v>
+      </c>
+      <c r="J11" t="n">
+        <v>230</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2402712636.812015</v>
+        <v>2040639873.070939</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1778159374092552</v>
+        <v>0.1440829418903127</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04405228968076083</v>
+        <v>0.03635216432763111</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3557932581.609931</v>
+        <v>3995135538.066532</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1003966328636338</v>
+        <v>0.07724621432526629</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02789130771671678</v>
+        <v>0.02604997533651709</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>116</v>
+      </c>
+      <c r="J13" t="n">
+        <v>230</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -822,17 +925,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3113654692.571943</v>
+        <v>3086562033.753922</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1631786610378416</v>
+        <v>0.1530713133960043</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03747776285221123</v>
+        <v>0.03413180347744924</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>44</v>
+      </c>
+      <c r="J14" t="n">
+        <v>227</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1565048089.49179</v>
+        <v>1344268258.250212</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08350548734389961</v>
+        <v>0.07066327043935747</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04618149346695497</v>
+        <v>0.04062648330435386</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2104638910.287296</v>
+        <v>2496628388.820654</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1029503678063168</v>
+        <v>0.08898051784893596</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04653000461547873</v>
+        <v>0.04834402687315886</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1024,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4465614479.159184</v>
+        <v>3828536497.178102</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1516713958977369</v>
+        <v>0.1413868271252397</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03748457923308146</v>
+        <v>0.03279441122742682</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>111</v>
+      </c>
+      <c r="J17" t="n">
+        <v>229</v>
+      </c>
+      <c r="K17" t="n">
+        <v>85.10189508060969</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3061335134.730597</v>
+        <v>3391610562.178658</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1755987162372116</v>
+        <v>0.1359042518939762</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02340042989259442</v>
+        <v>0.0239293319310989</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>58</v>
+      </c>
+      <c r="J18" t="n">
+        <v>221</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1215307900.547446</v>
+        <v>956404644.5875196</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1821400587913583</v>
+        <v>0.1896285070866</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0225791291566405</v>
+        <v>0.02377395367175051</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2538286254.890339</v>
+        <v>2158018025.689205</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1495594204663629</v>
+        <v>0.1119096382000077</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02938974435924261</v>
+        <v>0.02052900411106795</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1910792944.00246</v>
+        <v>2065298979.204725</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06871141150554344</v>
+        <v>0.09428279425569797</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03101873844003914</v>
+        <v>0.03353440918309689</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1201,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2931202980.292986</v>
+        <v>3137201055.633475</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09019848568087452</v>
+        <v>0.09833981016434451</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04045312104835726</v>
+        <v>0.03556974980159142</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>58</v>
+      </c>
+      <c r="J22" t="n">
+        <v>228</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1242,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1403355652.093877</v>
+        <v>1363452262.647626</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1656999510955136</v>
+        <v>0.1836384064886548</v>
       </c>
       <c r="G23" t="n">
-        <v>0.048037894947898</v>
+        <v>0.05164127765782923</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1271,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3585848138.658651</v>
+        <v>2678594202.396629</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1149474679309875</v>
+        <v>0.09401258775041214</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02729296694583343</v>
+        <v>0.03482276410541985</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>70</v>
+      </c>
+      <c r="J24" t="n">
+        <v>220</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1306,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1208608757.474067</v>
+        <v>1469678361.01615</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0992186446947706</v>
+        <v>0.07919323335808838</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02686367712617808</v>
+        <v>0.02390626240607356</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1341,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1259914438.824169</v>
+        <v>1111783355.257427</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1103814605246101</v>
+        <v>0.08894230072867866</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03289384706179996</v>
+        <v>0.02667103461120251</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,17 +1382,24 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3585139009.589721</v>
+        <v>4317129736.361991</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1389369194701025</v>
+        <v>0.1321727472577835</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0191719613409505</v>
+        <v>0.02520928519109504</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>92</v>
+      </c>
+      <c r="J27" t="n">
+        <v>230</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1214,17 +1417,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2902178167.831986</v>
+        <v>3699822209.942683</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1063030755797421</v>
+        <v>0.09648397411611177</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04815719417351892</v>
+        <v>0.04628622912020308</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>47</v>
+      </c>
+      <c r="J28" t="n">
+        <v>230</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1446,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5419931903.293258</v>
+        <v>4261817948.438822</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1077292355796927</v>
+        <v>0.1268860998635135</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03170093894947563</v>
+        <v>0.04245217685436647</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>219</v>
+      </c>
+      <c r="J29" t="n">
+        <v>230</v>
+      </c>
+      <c r="K29" t="n">
+        <v>120.951074642332</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1483,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1731325379.694629</v>
+        <v>1802805848.448201</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1135125929181806</v>
+        <v>0.1309246564379196</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03553677706657146</v>
+        <v>0.03252661800067308</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1518,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1000845934.730145</v>
+        <v>1084613320.178187</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06808795183287308</v>
+        <v>0.08566481272857678</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03811457037262154</v>
+        <v>0.04481159822340763</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1553,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1822166829.701494</v>
+        <v>1459881487.568072</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0935899108076001</v>
+        <v>0.1084880761563011</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0294996232612881</v>
+        <v>0.02509616885413997</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1588,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1984668352.81814</v>
+        <v>2682069053.995739</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1462466757032651</v>
+        <v>0.1775655360180755</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03800966899458515</v>
+        <v>0.06042704544626852</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1629,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1324200492.02026</v>
+        <v>1117802217.892176</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1118750757371164</v>
+        <v>0.09090035675779864</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02475468619535804</v>
+        <v>0.01724297300026986</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1658,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1039797107.339271</v>
+        <v>1157941012.773837</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1077019599531917</v>
+        <v>0.1170190868939273</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03205335060506766</v>
+        <v>0.02737812841501218</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1699,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2238164437.943285</v>
+        <v>2616957796.643537</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1725433807153121</v>
+        <v>0.1616476789787578</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02872798184652166</v>
+        <v>0.02230627652940794</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1734,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2339802006.168441</v>
+        <v>2941648093.400109</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08252032314287734</v>
+        <v>0.0727110166296942</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04104426516296208</v>
+        <v>0.03793389295294222</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1763,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1764404576.815224</v>
+        <v>1923726923.006352</v>
       </c>
       <c r="F38" t="n">
-        <v>0.104076854854683</v>
+        <v>0.1202806598846572</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03480011059796123</v>
+        <v>0.02803881222984973</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1798,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1763221129.445424</v>
+        <v>1659512938.39798</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1604948408421795</v>
+        <v>0.1198870848347513</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02609528566839158</v>
+        <v>0.02279441235938626</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1833,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1178224602.260356</v>
+        <v>1387460652.513011</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1207920220832436</v>
+        <v>0.09847054843732382</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04006414984607386</v>
+        <v>0.04085469505792706</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1868,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2411710510.88487</v>
+        <v>2451680496.678235</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1056944770972023</v>
+        <v>0.1403515586569183</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04649639439028846</v>
+        <v>0.04265281369357243</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1903,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3451315712.538503</v>
+        <v>4173433491.096606</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1027292889501338</v>
+        <v>0.09169029947559355</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04583233587162439</v>
+        <v>0.03657663110775897</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>93</v>
+      </c>
+      <c r="J42" t="n">
+        <v>230</v>
+      </c>
+      <c r="K42" t="n">
+        <v>117.063388543315</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1940,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2307699632.588055</v>
+        <v>1935192270.593186</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1804411691965005</v>
+        <v>0.144765430711435</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02526184714751154</v>
+        <v>0.02454474678313949</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1981,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1490637717.838955</v>
+        <v>1509347309.089794</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06313842825565252</v>
+        <v>0.06693581617265304</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02329898597163088</v>
+        <v>0.03010086556388778</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1683032152.179358</v>
+        <v>1625816062.846335</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1598618046798804</v>
+        <v>0.193513748616049</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03741597237908125</v>
+        <v>0.03586646882346676</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,17 +2051,24 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4217912765.707726</v>
+        <v>3810103873.895581</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1461186479314922</v>
+        <v>0.1331161470150627</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04773777791900959</v>
+        <v>0.03981026028833163</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>132</v>
+      </c>
+      <c r="J46" t="n">
+        <v>230</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2080,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3798658464.298494</v>
+        <v>4162418850.083058</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1682551555752342</v>
+        <v>0.1447419327448351</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05549584028122838</v>
+        <v>0.05099718776461328</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>103</v>
+      </c>
+      <c r="J47" t="n">
+        <v>229</v>
+      </c>
+      <c r="K47" t="n">
+        <v>90.64237043393383</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2117,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3814257461.559656</v>
+        <v>2981123525.842103</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07959020738078008</v>
+        <v>0.1094156052248052</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0359408628650597</v>
+        <v>0.03652135241121338</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>112</v>
+      </c>
+      <c r="J48" t="n">
+        <v>229</v>
+      </c>
+      <c r="K48" t="n">
+        <v>59.36389202086213</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2154,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1472179114.498233</v>
+        <v>1773546244.384617</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1267914318920545</v>
+        <v>0.1305054007199024</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04391015259344949</v>
+        <v>0.04023729873522651</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2189,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3536973188.608865</v>
+        <v>3402180091.547318</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1539395955062319</v>
+        <v>0.1357523626151882</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05120454830493713</v>
+        <v>0.04907168364396493</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>76</v>
+      </c>
+      <c r="J50" t="n">
+        <v>228</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2224,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1287483488.765927</v>
+        <v>1196704714.227428</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1181710776203155</v>
+        <v>0.1240122637604613</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05221425060710641</v>
+        <v>0.03426978207588287</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2259,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4507274817.632278</v>
+        <v>5067856356.351016</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1279896787091193</v>
+        <v>0.1223086686489072</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04538920589587529</v>
+        <v>0.03873050047590022</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>152</v>
+      </c>
+      <c r="J52" t="n">
+        <v>229</v>
+      </c>
+      <c r="K52" t="n">
+        <v>107.5962868649789</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2296,31 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2543837745.955797</v>
+        <v>2516391232.269333</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1889049100299063</v>
+        <v>0.1376352618045086</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03128495502632309</v>
+        <v>0.03460052784825703</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>31</v>
+      </c>
+      <c r="J53" t="n">
+        <v>229</v>
+      </c>
+      <c r="K53" t="n">
+        <v>38.08856225868811</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2333,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4050808751.89777</v>
+        <v>4635155320.933293</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1681544129881597</v>
+        <v>0.1495286492882268</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04040422089169455</v>
+        <v>0.03230949896307917</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>123</v>
+      </c>
+      <c r="J54" t="n">
+        <v>229</v>
+      </c>
+      <c r="K54" t="n">
+        <v>111.0710506807699</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +2376,25 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3867356452.406152</v>
+        <v>3072250634.614851</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1592544688286598</v>
+        <v>0.2132147137155753</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03144850078382769</v>
+        <v>0.02133344765967341</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>103</v>
+      </c>
+      <c r="J55" t="n">
+        <v>229</v>
+      </c>
+      <c r="K55" t="n">
+        <v>58.24445437534322</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1561232406.054513</v>
+        <v>1818705992.031415</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1616881576580074</v>
+        <v>0.140940196181183</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05714948702181262</v>
+        <v>0.05741641756892736</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2442,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4326088635.557684</v>
+        <v>3231812892.506739</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1380557092865936</v>
+        <v>0.1184004236538798</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02709271037734397</v>
+        <v>0.02740096103706221</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>90</v>
+      </c>
+      <c r="J57" t="n">
+        <v>228</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1394017739.272347</v>
+        <v>1219554454.348979</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1506786546325238</v>
+        <v>0.1978095263756069</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03581688197261038</v>
+        <v>0.03168468741677852</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2518,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3713322146.689499</v>
+        <v>4548066495.696748</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1081509602093336</v>
+        <v>0.1262163534254922</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04777542009007864</v>
+        <v>0.04787228012681924</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>111</v>
+      </c>
+      <c r="J59" t="n">
+        <v>230</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2653364996.390652</v>
+        <v>2679215308.887923</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1358022002864523</v>
+        <v>0.1988316975472252</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02937871457083769</v>
+        <v>0.02938560035901083</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>32</v>
+      </c>
+      <c r="J60" t="n">
+        <v>219</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2215823157.643799</v>
+        <v>3031817176.940983</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1520131282439772</v>
+        <v>0.1126465852436804</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02727541896945108</v>
+        <v>0.0245749449467895</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>188</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2623,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2122744057.667697</v>
+        <v>1972119946.088818</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1173416607862015</v>
+        <v>0.1631350456454985</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03917674215189097</v>
+        <v>0.04258702650523979</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,16 +2658,25 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3596390480.190751</v>
+        <v>4143106597.906795</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08189415074155622</v>
+        <v>0.08588921913007279</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03593879636147774</v>
+        <v>0.04236196109620962</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>112</v>
+      </c>
+      <c r="J63" t="n">
+        <v>229</v>
+      </c>
+      <c r="K63" t="n">
+        <v>101.4447879570898</v>
       </c>
     </row>
     <row r="64">
@@ -2222,17 +2695,24 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4396361912.19971</v>
+        <v>5384457339.4285</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1587877092295998</v>
+        <v>0.1178555451727054</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02441532710661936</v>
+        <v>0.02535106755359833</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>113</v>
+      </c>
+      <c r="J64" t="n">
+        <v>230</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3932960706.461372</v>
+        <v>5340931905.592889</v>
       </c>
       <c r="F65" t="n">
-        <v>0.163335939244103</v>
+        <v>0.1649726235586797</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03232691160029546</v>
+        <v>0.02135527665112831</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>183</v>
+      </c>
+      <c r="J65" t="n">
+        <v>230</v>
+      </c>
+      <c r="K65" t="n">
+        <v>112.4494540677603</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2761,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4086547088.308765</v>
+        <v>5637158910.259549</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1574985185342412</v>
+        <v>0.1343503023248296</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03274235348301874</v>
+        <v>0.04272044421435533</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>113</v>
+      </c>
+      <c r="J66" t="n">
+        <v>230</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3000131215.336236</v>
+        <v>2843210656.27561</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07604628745438095</v>
+        <v>0.06259368156283474</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03862702473085734</v>
+        <v>0.04169258255719818</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>4</v>
+      </c>
+      <c r="J67" t="n">
+        <v>226</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2837,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3796436965.751996</v>
+        <v>5949791803.641579</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1140672541992131</v>
+        <v>0.1192635668604893</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04849600459054693</v>
+        <v>0.03211110221694951</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>116</v>
+      </c>
+      <c r="J68" t="n">
+        <v>229</v>
+      </c>
+      <c r="K68" t="n">
+        <v>108.1912424269333</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1989372198.9474</v>
+        <v>2313014210.871833</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1414157513889317</v>
+        <v>0.1573271437320953</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05380177122910088</v>
+        <v>0.03619446275437865</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2909,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2806711330.798182</v>
+        <v>3349905592.45849</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07707831412535544</v>
+        <v>0.1003176034988405</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03021110912559146</v>
+        <v>0.03912014281609959</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>35</v>
+      </c>
+      <c r="J70" t="n">
+        <v>227</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5135325023.213108</v>
+        <v>3488182495.100611</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1232036567169122</v>
+        <v>0.1753938372601908</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02240893501413527</v>
+        <v>0.02684484191315806</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>175</v>
+      </c>
+      <c r="J71" t="n">
+        <v>229</v>
+      </c>
+      <c r="K71" t="n">
+        <v>77.15385330074656</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2981,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2248692804.332944</v>
+        <v>2100561793.20581</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1025966856662661</v>
+        <v>0.0876551701737087</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03979011454849671</v>
+        <v>0.03961842822038997</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3016,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2240106010.146182</v>
+        <v>2877362970.999225</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07029952926251803</v>
+        <v>0.07617785634539039</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03386048654233473</v>
+        <v>0.04255175412139155</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>12</v>
+      </c>
+      <c r="J73" t="n">
+        <v>208</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3045,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3265658781.475657</v>
+        <v>2751203136.863778</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1199124197266562</v>
+        <v>0.1351412712554884</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03439227907590205</v>
+        <v>0.03411317745651765</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>67</v>
+      </c>
+      <c r="J74" t="n">
+        <v>229</v>
+      </c>
+      <c r="K74" t="n">
+        <v>50.61096269166149</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1736892505.291116</v>
+        <v>2413295831.229241</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1453136037954505</v>
+        <v>0.1596544093124157</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0245826418377855</v>
+        <v>0.03343074047072812</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3117,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5152822647.487142</v>
+        <v>4134316182.983628</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09926025357502694</v>
+        <v>0.1188178322467607</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02667561091278279</v>
+        <v>0.03111580805576259</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>106</v>
+      </c>
+      <c r="J76" t="n">
+        <v>230</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1576209558.198673</v>
+        <v>1801016691.258201</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1469479667024771</v>
+        <v>0.1582938526579679</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03003151656781596</v>
+        <v>0.02176061281090147</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3187,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4006248734.788701</v>
+        <v>4040196023.992157</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1203348042243386</v>
+        <v>0.09769975237734255</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04138467846319641</v>
+        <v>0.04264663231228561</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>115</v>
+      </c>
+      <c r="J78" t="n">
+        <v>230</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2642,17 +3228,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1435496587.653399</v>
+        <v>1160033675.458442</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1585381344426759</v>
+        <v>0.164707107315727</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03612330285497645</v>
+        <v>0.03796950382206898</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3257,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4971620094.004296</v>
+        <v>4345933907.926718</v>
       </c>
       <c r="F80" t="n">
-        <v>0.107595879035935</v>
+        <v>0.07517639222624257</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03577552439948527</v>
+        <v>0.03375552941479951</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>112</v>
+      </c>
+      <c r="J80" t="n">
+        <v>229</v>
+      </c>
+      <c r="K80" t="n">
+        <v>81.10148984587541</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3294,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4725387703.503827</v>
+        <v>4716793738.47095</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1224196191947184</v>
+        <v>0.09426243701016476</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03147886062716494</v>
+        <v>0.02081947782602169</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>106</v>
+      </c>
+      <c r="J81" t="n">
+        <v>229</v>
+      </c>
+      <c r="K81" t="n">
+        <v>95.07790259250686</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3331,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4742031452.926296</v>
+        <v>5439920680.977713</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1667443749830826</v>
+        <v>0.1614430385410109</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01884933683414637</v>
+        <v>0.02531390651897538</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>172</v>
+      </c>
+      <c r="J82" t="n">
+        <v>230</v>
+      </c>
+      <c r="K82" t="n">
+        <v>113.0565019699255</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3374,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1673404111.065769</v>
+        <v>2285604280.348885</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1490653127338008</v>
+        <v>0.1154500580929371</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04010222881134211</v>
+        <v>0.04538422229744733</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2133540301.697424</v>
+        <v>2148653377.232348</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09852959717572209</v>
+        <v>0.07721422720445016</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04099131831325204</v>
+        <v>0.03458170854229843</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3398518491.793974</v>
+        <v>3167268043.266915</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1201862549830862</v>
+        <v>0.1163263249499276</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04964093158706608</v>
+        <v>0.04374974642804982</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>31</v>
+      </c>
+      <c r="J85" t="n">
+        <v>225</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2598729439.827852</v>
+        <v>2664105019.949468</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1415013915613125</v>
+        <v>0.1432960704336697</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01795037046232294</v>
+        <v>0.02212526604192557</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1447724853.56494</v>
+        <v>1448092087.334333</v>
       </c>
       <c r="F87" t="n">
-        <v>0.117153237487902</v>
+        <v>0.1560728378262029</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03840606655157457</v>
+        <v>0.04445395040963532</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3025773534.99648</v>
+        <v>3617194420.283356</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1160630203808767</v>
+        <v>0.1582436066026818</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0337339348424046</v>
+        <v>0.02633430170653391</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>32</v>
+      </c>
+      <c r="J88" t="n">
+        <v>230</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3584,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2252406297.440554</v>
+        <v>2232135455.997742</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1446183352208206</v>
+        <v>0.157427605574298</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0332297172532987</v>
+        <v>0.04024805107366723</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>17</v>
+      </c>
+      <c r="J89" t="n">
+        <v>225</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1341988124.550497</v>
+        <v>1891536732.99617</v>
       </c>
       <c r="F90" t="n">
-        <v>0.129212451453437</v>
+        <v>0.1365069983712623</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0447612389355338</v>
+        <v>0.03405743634418205</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3654,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1621116918.09043</v>
+        <v>1953005075.943541</v>
       </c>
       <c r="F91" t="n">
-        <v>0.125968796448544</v>
+        <v>0.1813402240674162</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04407124211865162</v>
+        <v>0.03901455517215329</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1942513954.572142</v>
+        <v>2239151103.810635</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08354796404462286</v>
+        <v>0.1002494793962706</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03314011762510153</v>
+        <v>0.04715095660543547</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4131318057.969498</v>
+        <v>4802024539.502677</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1413269871433271</v>
+        <v>0.1382344229116089</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04497392141627227</v>
+        <v>0.04055661062175896</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>102</v>
+      </c>
+      <c r="J93" t="n">
+        <v>230</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1819026820.944393</v>
+        <v>1797703061.581237</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1223901426349362</v>
+        <v>0.1613595612811686</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03960104127920221</v>
+        <v>0.03831479722487513</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3794,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2764471105.392699</v>
+        <v>3086366110.071852</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1103405245699498</v>
+        <v>0.1185210219719366</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04834473464120496</v>
+        <v>0.05201995935691478</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2107566916.037409</v>
+        <v>2092526382.925446</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1315079303540193</v>
+        <v>0.1045130472804827</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04625991460732989</v>
+        <v>0.03902835385490568</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5208411590.320479</v>
+        <v>3957588805.390493</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1100911054693567</v>
+        <v>0.1145148394005292</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01881655246438314</v>
+        <v>0.01909626863499544</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>111</v>
+      </c>
+      <c r="J97" t="n">
+        <v>230</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,22 +3893,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3621723659.672125</v>
+        <v>2788931164.77755</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1065625277161509</v>
+        <v>0.096804665299721</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02526068332942959</v>
+        <v>0.03288733065229969</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>56</v>
+      </c>
+      <c r="J98" t="n">
+        <v>229</v>
+      </c>
+      <c r="K98" t="n">
+        <v>44.81435536267988</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2945124554.92499</v>
+        <v>2767391713.592273</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1421734794679895</v>
+        <v>0.1094581008644579</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0266876551275748</v>
+        <v>0.02526520648888294</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>3</v>
+      </c>
+      <c r="J99" t="n">
+        <v>211</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3785837661.33642</v>
+        <v>4491557331.102186</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1797880305754341</v>
+        <v>0.1096581723595643</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02476340666876621</v>
+        <v>0.02329643126298604</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>96</v>
+      </c>
+      <c r="J100" t="n">
+        <v>230</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2344643134.937499</v>
+        <v>2902473008.872303</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1534067304193384</v>
+        <v>0.2100932701320579</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04725921106766887</v>
+        <v>0.04888768769598787</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
